--- a/biology/Biologie cellulaire et moléculaire/Fibre_de_projection/Fibre_de_projection.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Fibre_de_projection/Fibre_de_projection.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les fibres de projection sont constituées de fibres efférentes et afférentes, situées au-dessus des noyaux gris centraux, et qui relient le cortex cérébral aux structures sous-adjacentes[1]. Au sein du cerveau humain, l'ensemble d'axones ou fibres nerveuses forme ce qu'on appelle les faisceaux nerveux (ou voies nerveuses), qui peuvent être classés selon leur fonction en fibres d'association, fibres de projection et fibres commissurales[2]. 
+Les fibres de projection sont constituées de fibres efférentes et afférentes, situées au-dessus des noyaux gris centraux, et qui relient le cortex cérébral aux structures sous-adjacentes. Au sein du cerveau humain, l'ensemble d'axones ou fibres nerveuses forme ce qu'on appelle les faisceaux nerveux (ou voies nerveuses), qui peuvent être classés selon leur fonction en fibres d'association, fibres de projection et fibres commissurales. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Fibres efférentes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les principales fibres efférentes sont : 
 la voie motrice qui occupe le genou et les deux tiers antérieurs de la partie occipitale de la capsule interne, consistant en :
@@ -546,7 +560,9 @@
           <t>Fibres afférentes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principales fibres afférentes sont : 
 celles du lemnisque qui ne font pas relais au niveau du thalamus ;
